--- a/doc/プロジェクト計画書/プロジェクト計画書 2/スケジュール.xlsx
+++ b/doc/プロジェクト計画書/プロジェクト計画書 2/スケジュール.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y\Documents\GitHub\Document-Template\doc\プロジェクト計画書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y\Documents\GitHub\Document-Template\doc\プロジェクト計画書\プロジェクト計画書 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A419570-A830-4192-9963-B518595E2AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B09EC1-6464-4BF5-8061-423AB0FD7011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{CEB75DB1-B23B-4121-84D7-02752610E049}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30480" windowHeight="17412" xr2:uid="{CEB75DB1-B23B-4121-84D7-02752610E049}"/>
   </bookViews>
   <sheets>
     <sheet name="四半期ごと" sheetId="1" r:id="rId1"/>
     <sheet name="週ごと" sheetId="3" r:id="rId2"/>
     <sheet name="src" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">四半期ごと!$A$1:$T$14</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -221,20 +224,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -815,6 +812,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -837,63 +835,63 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" s="2" t="str">
         <f>IF(YEAR(C5)&lt;&gt;YEAR(D5),YEAR(D5)&amp;"年","")</f>
         <v>2024年</v>
       </c>
-      <c r="E2" s="3" t="str">
+      <c r="E2" s="2" t="str">
         <f t="shared" ref="E2:R2" si="0">IF(YEAR(D5)&lt;&gt;YEAR(E5),YEAR(E5),"")</f>
         <v/>
       </c>
-      <c r="F2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q2" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R2" s="3" t="str">
+      <c r="F2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R2" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -902,125 +900,125 @@
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="str">
+      <c r="D3" s="2" t="str">
         <f>MONTH(D5)&amp;"月第"&amp;D4&amp;"週"&amp;IF(AND(D4&lt;&gt;1,E4=2)," / "&amp;MONTH(E5)&amp;"月第1週","")</f>
         <v>1月第1週</v>
       </c>
-      <c r="E3" s="3" t="str">
+      <c r="E3" s="2" t="str">
         <f t="shared" ref="E3:R3" si="1">MONTH(E5)&amp;"月第"&amp;E4&amp;"週"&amp;IF(AND(E4&lt;&gt;1,F4=2)," / "&amp;MONTH(F5)&amp;"月第1週","")</f>
         <v>1月第2週</v>
       </c>
-      <c r="F3" s="3" t="str">
+      <c r="F3" s="2" t="str">
         <f t="shared" si="1"/>
         <v>1月第3週</v>
       </c>
-      <c r="G3" s="3" t="str">
+      <c r="G3" s="2" t="str">
         <f t="shared" si="1"/>
         <v>1月第4週</v>
       </c>
-      <c r="H3" s="3" t="str">
+      <c r="H3" s="2" t="str">
         <f t="shared" si="1"/>
         <v>1月第5週 / 2月第1週</v>
       </c>
-      <c r="I3" s="3" t="str">
+      <c r="I3" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2月第2週</v>
       </c>
-      <c r="J3" s="3" t="str">
+      <c r="J3" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2月第3週</v>
       </c>
-      <c r="K3" s="3" t="str">
+      <c r="K3" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2月第4週</v>
       </c>
-      <c r="L3" s="3" t="str">
+      <c r="L3" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2月第5週 / 3月第1週</v>
       </c>
-      <c r="M3" s="3" t="str">
+      <c r="M3" s="2" t="str">
         <f t="shared" si="1"/>
         <v>3月第2週</v>
       </c>
-      <c r="N3" s="3" t="str">
+      <c r="N3" s="2" t="str">
         <f t="shared" si="1"/>
         <v>3月第3週</v>
       </c>
-      <c r="O3" s="3" t="str">
+      <c r="O3" s="2" t="str">
         <f t="shared" si="1"/>
         <v>3月第4週</v>
       </c>
-      <c r="P3" s="3" t="str">
+      <c r="P3" s="2" t="str">
         <f t="shared" si="1"/>
         <v>3月第5週</v>
       </c>
-      <c r="Q3" s="3" t="str">
+      <c r="Q3" s="2" t="str">
         <f t="shared" si="1"/>
         <v>4月第1週</v>
       </c>
-      <c r="R3" s="3" t="str">
+      <c r="R3" s="2" t="str">
         <f t="shared" si="1"/>
         <v>4月第2週</v>
       </c>
     </row>
     <row r="4" spans="2:18" hidden="1" x14ac:dyDescent="0.45">
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <f>WEEKNUM(D5,2)-WEEKNUM(DATE(YEAR(D5),MONTH(D5),1),2)+1</f>
         <v>1</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:R4" si="2">WEEKNUM(E5,2)-WEEKNUM(DATE(YEAR(E5),MONTH(E5),1),2)+1</f>
         <v>2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -1029,63 +1027,63 @@
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <f>src!$C$1+7*(COLUMN(D5)-COLUMN($D$4))</f>
         <v>45292</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <f>src!$C$1+7*(COLUMN(E5)-COLUMN($D$4))</f>
         <v>45299</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <f>src!$C$1+7*(COLUMN(F5)-COLUMN($D$4))</f>
         <v>45306</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <f>src!$C$1+7*(COLUMN(G5)-COLUMN($D$4))</f>
         <v>45313</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <f>src!$C$1+7*(COLUMN(H5)-COLUMN($D$4))</f>
         <v>45320</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <f>src!$C$1+7*(COLUMN(I5)-COLUMN($D$4))</f>
         <v>45327</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <f>src!$C$1+7*(COLUMN(J5)-COLUMN($D$4))</f>
         <v>45334</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <f>src!$C$1+7*(COLUMN(K5)-COLUMN($D$4))</f>
         <v>45341</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="3">
         <f>src!$C$1+7*(COLUMN(L5)-COLUMN($D$4))</f>
         <v>45348</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="3">
         <f>src!$C$1+7*(COLUMN(M5)-COLUMN($D$4))</f>
         <v>45355</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="3">
         <f>src!$C$1+7*(COLUMN(N5)-COLUMN($D$4))</f>
         <v>45362</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="3">
         <f>src!$C$1+7*(COLUMN(O5)-COLUMN($D$4))</f>
         <v>45369</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="3">
         <f>src!$C$1+7*(COLUMN(P5)-COLUMN($D$4))</f>
         <v>45376</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="3">
         <f>src!$C$1+7*(COLUMN(Q5)-COLUMN($D$4))</f>
         <v>45383</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="3">
         <f>src!$C$1+7*(COLUMN(R5)-COLUMN($D$4))</f>
         <v>45390</v>
       </c>
@@ -1184,7 +1182,7 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <f>INT((MONTH(C1)-1)/3)+1</f>
         <v>1</v>
       </c>
